--- a/demand_pattern.xlsx
+++ b/demand_pattern.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\PycharmProjects\WaterDemand\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{859DEA3B-2770-4166-BAD6-0A3808F1E3E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9F1C5AD-D614-4A21-8788-B441523C577B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DF8C613A-1944-4757-8A71-4B65ABA01AAF}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11265" xr2:uid="{DF8C613A-1944-4757-8A71-4B65ABA01AAF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -20,30 +20,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Time</t>
   </si>
   <si>
-    <t>Flow EP (m³/h)</t>
+    <t>P1b (Gallons/h)</t>
   </si>
   <si>
-    <t>Flow LM (m³/h)</t>
+    <t>P1a (Gallons/h)</t>
   </si>
   <si>
-    <t>Flow EM (m³/h)</t>
+    <t>P2a (m³/h)</t>
   </si>
   <si>
-    <t>Flow MP (m³/h)</t>
+    <t>P2b (m³/h)</t>
   </si>
   <si>
-    <t>Flow D1 (m³/h)</t>
+    <t>P3a (m³/h)</t>
   </si>
   <si>
-    <t>Flow D2 (m³/h)</t>
-  </si>
-  <si>
-    <t>Flow D3 (m³/h)</t>
+    <t>P3b (m³/h)</t>
   </si>
 </sst>
 </file>
@@ -527,7 +524,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -536,6 +533,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -913,662 +913,591 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{641B7EE3-E631-401C-BF2D-4303553D1A6E}">
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="12.140625" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>11.8</v>
       </c>
       <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
+        <v>8.9</v>
+      </c>
+      <c r="D2" s="3">
+        <v>22</v>
       </c>
       <c r="E2" s="3">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="F2" s="3">
-        <v>18</v>
+        <v>24.4</v>
       </c>
       <c r="G2" s="3">
-        <v>18</v>
-      </c>
-      <c r="H2" s="3">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+        <v>48.8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>11.7</v>
       </c>
       <c r="C3">
-        <v>2</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
+        <v>9</v>
+      </c>
+      <c r="D3" s="3">
+        <v>10</v>
       </c>
       <c r="E3" s="3">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F3" s="3">
-        <v>12</v>
+        <v>24.4</v>
       </c>
       <c r="G3" s="3">
-        <v>12</v>
-      </c>
-      <c r="H3" s="3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+        <v>24.4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="B4">
-        <v>1.5</v>
+        <v>11.7</v>
       </c>
       <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
+        <v>7</v>
+      </c>
+      <c r="D4" s="3">
+        <v>6</v>
       </c>
       <c r="E4" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F4" s="3">
-        <v>10</v>
+        <v>24.4</v>
       </c>
       <c r="G4" s="3">
-        <v>10</v>
-      </c>
-      <c r="H4" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+        <v>12.2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>0.125</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>15.9</v>
       </c>
       <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
+        <v>6.9</v>
+      </c>
+      <c r="D5" s="3">
+        <v>4</v>
       </c>
       <c r="E5" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F5" s="3">
-        <v>8</v>
+        <v>48.8</v>
       </c>
       <c r="G5" s="3">
-        <v>8</v>
-      </c>
-      <c r="H5" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+        <v>12.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>0.16666666666666666</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>20.3</v>
       </c>
       <c r="C6">
-        <v>3</v>
-      </c>
-      <c r="D6">
+        <v>7.9</v>
+      </c>
+      <c r="D6" s="3">
+        <v>4</v>
+      </c>
+      <c r="E6" s="3">
         <v>2</v>
       </c>
-      <c r="E6" s="3">
-        <v>4</v>
-      </c>
       <c r="F6" s="3">
-        <v>7</v>
+        <v>73.2</v>
       </c>
       <c r="G6" s="3">
-        <v>7</v>
-      </c>
-      <c r="H6" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+        <v>12.2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>0.20833333333333334</v>
       </c>
       <c r="B7">
-        <v>1.5</v>
+        <v>23</v>
       </c>
       <c r="C7">
-        <v>9</v>
-      </c>
-      <c r="D7">
-        <v>4</v>
+        <v>10.3</v>
+      </c>
+      <c r="D7" s="3">
+        <v>3</v>
       </c>
       <c r="E7" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F7" s="3">
-        <v>6</v>
+        <v>122</v>
       </c>
       <c r="G7" s="3">
-        <v>6</v>
-      </c>
-      <c r="H7" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+        <v>14.8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>0.25</v>
       </c>
       <c r="B8">
-        <v>3</v>
+        <v>23.2</v>
       </c>
       <c r="C8">
-        <v>7</v>
-      </c>
-      <c r="D8">
-        <v>6</v>
+        <v>12.3</v>
+      </c>
+      <c r="D8" s="3">
+        <v>5</v>
       </c>
       <c r="E8" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F8" s="3">
-        <v>8</v>
+        <v>122</v>
       </c>
       <c r="G8" s="3">
-        <v>8</v>
-      </c>
-      <c r="H8" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+        <v>73.2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>0.29166666666666669</v>
       </c>
       <c r="B9">
-        <v>6</v>
+        <v>19.8</v>
       </c>
       <c r="C9">
-        <v>6</v>
-      </c>
-      <c r="D9">
-        <v>6</v>
+        <v>14.8</v>
+      </c>
+      <c r="D9" s="3">
+        <v>28</v>
       </c>
       <c r="E9" s="3">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="F9" s="3">
-        <v>30</v>
+        <v>146.4</v>
       </c>
       <c r="G9" s="3">
-        <v>38</v>
-      </c>
-      <c r="H9" s="3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+        <v>73.2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>0.33333333333333331</v>
       </c>
       <c r="B10">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C10">
-        <v>5</v>
-      </c>
-      <c r="D10">
-        <v>5</v>
+        <v>14.4</v>
+      </c>
+      <c r="D10" s="3">
+        <v>72</v>
       </c>
       <c r="E10" s="3">
-        <v>72</v>
+        <v>20</v>
       </c>
       <c r="F10" s="3">
-        <v>74</v>
+        <v>97.6</v>
       </c>
       <c r="G10" s="3">
-        <v>116</v>
-      </c>
-      <c r="H10" s="3">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+        <v>97.6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>0.375</v>
       </c>
       <c r="B11">
-        <v>7</v>
+        <v>12.6</v>
       </c>
       <c r="C11">
-        <v>4</v>
-      </c>
-      <c r="D11">
-        <v>4</v>
+        <v>12.5</v>
+      </c>
+      <c r="D11" s="3">
+        <v>64</v>
       </c>
       <c r="E11" s="3">
-        <v>64</v>
+        <v>28</v>
       </c>
       <c r="F11" s="3">
-        <v>90</v>
+        <v>97.6</v>
       </c>
       <c r="G11" s="3">
-        <v>84</v>
-      </c>
-      <c r="H11" s="3">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+        <v>97.6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>0.41666666666666669</v>
       </c>
       <c r="B12">
-        <v>5</v>
+        <v>10.7</v>
       </c>
       <c r="C12">
-        <v>4</v>
-      </c>
-      <c r="D12">
-        <v>4</v>
+        <v>10.6</v>
+      </c>
+      <c r="D12" s="3">
+        <v>56</v>
       </c>
       <c r="E12" s="3">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="F12" s="3">
-        <v>84</v>
+        <v>97.6</v>
       </c>
       <c r="G12" s="3">
-        <v>56</v>
-      </c>
-      <c r="H12" s="3">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+        <v>146.4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>0.45833333333333331</v>
       </c>
       <c r="B13">
-        <v>5</v>
+        <v>9.6</v>
       </c>
       <c r="C13">
-        <v>4</v>
-      </c>
-      <c r="D13">
-        <v>4</v>
+        <v>9.5</v>
+      </c>
+      <c r="D13" s="3">
+        <v>52</v>
       </c>
       <c r="E13" s="3">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="F13" s="3">
-        <v>72</v>
+        <v>122</v>
       </c>
       <c r="G13" s="3">
-        <v>44</v>
-      </c>
-      <c r="H13" s="3">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+        <v>195.2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>0.5</v>
       </c>
       <c r="B14">
-        <v>5</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="C14">
-        <v>5</v>
-      </c>
-      <c r="D14">
-        <v>5</v>
+        <v>8</v>
+      </c>
+      <c r="D14" s="3">
+        <v>48</v>
       </c>
       <c r="E14" s="3">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="F14" s="3">
-        <v>56</v>
+        <v>146.6</v>
       </c>
       <c r="G14" s="3">
-        <v>30</v>
-      </c>
-      <c r="H14" s="3">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+        <v>256.2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>0.54166666666666663</v>
       </c>
       <c r="B15">
-        <v>5</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="C15">
-        <v>5</v>
-      </c>
-      <c r="D15">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="D15" s="3">
+        <v>46</v>
       </c>
       <c r="E15" s="3">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="F15" s="3">
-        <v>46</v>
+        <v>170.8</v>
       </c>
       <c r="G15" s="3">
-        <v>24</v>
-      </c>
-      <c r="H15" s="3">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+        <v>219.6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>0.58333333333333337</v>
       </c>
       <c r="B16">
-        <v>4</v>
+        <v>8.1</v>
       </c>
       <c r="C16">
-        <v>5</v>
-      </c>
-      <c r="D16">
-        <v>6</v>
+        <v>6.3</v>
+      </c>
+      <c r="D16" s="3">
+        <v>44</v>
       </c>
       <c r="E16" s="3">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="F16" s="3">
-        <v>42</v>
+        <v>170.8</v>
       </c>
       <c r="G16" s="3">
-        <v>20</v>
-      </c>
-      <c r="H16" s="3">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+        <v>195.2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>0.625</v>
       </c>
       <c r="B17">
-        <v>4</v>
+        <v>8.6</v>
       </c>
       <c r="C17">
-        <v>6</v>
-      </c>
-      <c r="D17">
-        <v>12</v>
+        <v>6.2</v>
+      </c>
+      <c r="D17" s="3">
+        <v>44</v>
       </c>
       <c r="E17" s="3">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="F17" s="3">
-        <v>40</v>
+        <v>146.4</v>
       </c>
       <c r="G17" s="3">
-        <v>20</v>
-      </c>
-      <c r="H17" s="3">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+        <v>97.6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>0.66666666666666663</v>
       </c>
       <c r="B18">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C18">
-        <v>6</v>
-      </c>
-      <c r="D18">
-        <v>10</v>
+        <v>6.6</v>
+      </c>
+      <c r="D18" s="3">
+        <v>48</v>
       </c>
       <c r="E18" s="3">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="F18" s="3">
-        <v>36</v>
-      </c>
-      <c r="G18" s="3">
-        <v>24</v>
-      </c>
-      <c r="H18" s="3">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+        <v>97.6</v>
+      </c>
+      <c r="G18" s="4">
+        <v>73.2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>0.70833333333333337</v>
       </c>
       <c r="B19">
-        <v>5</v>
+        <v>10.1</v>
       </c>
       <c r="C19">
-        <v>7</v>
-      </c>
-      <c r="D19">
-        <v>8</v>
+        <v>7.3</v>
+      </c>
+      <c r="D19" s="3">
+        <v>54</v>
       </c>
       <c r="E19" s="3">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="F19" s="3">
-        <v>40</v>
+        <v>97.6</v>
       </c>
       <c r="G19" s="3">
-        <v>30</v>
-      </c>
-      <c r="H19" s="3">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+        <v>73.2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>0.75</v>
       </c>
       <c r="B20">
-        <v>7</v>
+        <v>11.4</v>
       </c>
       <c r="C20">
-        <v>8</v>
-      </c>
-      <c r="D20">
-        <v>7</v>
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="D20" s="3">
+        <v>76</v>
       </c>
       <c r="E20" s="3">
-        <v>76</v>
-      </c>
-      <c r="F20" s="3">
-        <v>44</v>
+        <v>30</v>
+      </c>
+      <c r="F20" s="4">
+        <v>97.6</v>
       </c>
       <c r="G20" s="3">
-        <v>42</v>
-      </c>
-      <c r="H20" s="3">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+        <v>170.8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>0.79166666666666663</v>
       </c>
       <c r="B21">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C21">
         <v>9</v>
       </c>
-      <c r="D21">
-        <v>6</v>
+      <c r="D21" s="3">
+        <v>96</v>
       </c>
       <c r="E21" s="3">
-        <v>96</v>
+        <v>32</v>
       </c>
       <c r="F21" s="3">
-        <v>40</v>
+        <v>122</v>
       </c>
       <c r="G21" s="3">
-        <v>54</v>
-      </c>
-      <c r="H21" s="3">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>0.83333333333333337</v>
       </c>
       <c r="B22">
-        <v>8</v>
+        <v>13.8</v>
       </c>
       <c r="C22">
-        <v>8</v>
-      </c>
-      <c r="D22">
-        <v>6</v>
+        <v>9.9</v>
+      </c>
+      <c r="D22" s="3">
+        <v>108</v>
       </c>
       <c r="E22" s="3">
-        <v>108</v>
+        <v>32</v>
       </c>
       <c r="F22" s="3">
-        <v>36</v>
+        <v>146.4</v>
       </c>
       <c r="G22" s="3">
-        <v>50</v>
-      </c>
-      <c r="H22" s="3">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+        <v>109.8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>0.875</v>
       </c>
       <c r="B23">
-        <v>6</v>
+        <v>14.1</v>
       </c>
       <c r="C23">
-        <v>6</v>
-      </c>
-      <c r="D23">
-        <v>4</v>
+        <v>10</v>
+      </c>
+      <c r="D23" s="3">
+        <v>106</v>
       </c>
       <c r="E23" s="3">
-        <v>106</v>
+        <v>30</v>
       </c>
       <c r="F23" s="3">
-        <v>32</v>
+        <v>122</v>
       </c>
       <c r="G23" s="3">
-        <v>46</v>
-      </c>
-      <c r="H23" s="3">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+        <v>97.6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>0.91666666666666663</v>
       </c>
       <c r="B24">
-        <v>4</v>
+        <v>13.3</v>
       </c>
       <c r="C24">
-        <v>4</v>
-      </c>
-      <c r="D24">
-        <v>4</v>
+        <v>10.199999999999999</v>
+      </c>
+      <c r="D24" s="3">
+        <v>94</v>
       </c>
       <c r="E24" s="3">
-        <v>94</v>
+        <v>26</v>
       </c>
       <c r="F24" s="3">
-        <v>30</v>
+        <v>73.2</v>
       </c>
       <c r="G24" s="3">
-        <v>38</v>
-      </c>
-      <c r="H24" s="3">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+        <v>73.2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>0.95833333333333337</v>
       </c>
       <c r="B25">
-        <v>3</v>
+        <v>15.3</v>
       </c>
       <c r="C25">
-        <v>2</v>
-      </c>
-      <c r="D25">
-        <v>2</v>
+        <v>10.3</v>
+      </c>
+      <c r="D25" s="3">
+        <v>56</v>
       </c>
       <c r="E25" s="3">
-        <v>56</v>
+        <v>24</v>
       </c>
       <c r="F25" s="3">
-        <v>30</v>
+        <v>48.8</v>
       </c>
       <c r="G25" s="3">
-        <v>34</v>
-      </c>
-      <c r="H25" s="3">
-        <v>24</v>
+        <v>48.8</v>
       </c>
     </row>
   </sheetData>
